--- a/Links/Manual Images/Platform BOM.xlsx
+++ b/Links/Manual Images/Platform BOM.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Área de Trabalho\Wickey\20-Job-20 - PowerPalm BB - REV.6\Platform BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336C827-9627-45DB-99EB-AFA838119A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6243F785-4D4C-473D-BA63-192EBF6EFEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8FB5B2A5-B3C5-427D-9B82-F7FE1AEDB1E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8FB5B2A5-B3C5-427D-9B82-F7FE1AEDB1E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="F2" sheetId="2" r:id="rId2"/>
+    <sheet name="F3" sheetId="3" r:id="rId3"/>
+    <sheet name="F4" sheetId="4" r:id="rId4"/>
+    <sheet name="F4 SLIDE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
   <si>
     <t>F87</t>
   </si>
@@ -345,6 +349,15 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>O42A</t>
+  </si>
+  <si>
+    <t>Wood - O</t>
+  </si>
+  <si>
+    <t>Washer head screw T20 4,5x50</t>
   </si>
 </sst>
 </file>
@@ -390,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -450,15 +463,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,15 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,6 +507,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,617 +871,620 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731F2CD5-13DC-4AF7-8FF5-402D07AB5BF9}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="27.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="27.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
         <v>12</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>2</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
         <v>8</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
         <v>12</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
         <v>8</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>2</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
         <v>8</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>2</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
         <v>8</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
@@ -1450,15 +1496,526 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3C4057-9E56-47FB-90F1-063C58FF9E7D}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14">
+        <v>52</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37F1D16-FE03-46E1-83DA-686D793A3B3B}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>88</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28445660-98C1-451D-A8F2-2D7D8CCD2313}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16">
+        <v>48</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4421887-A1D6-4459-ABAE-E58F91550A58}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16">
+        <v>100</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16">
+        <v>48</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>